--- a/biology/Zoologie/Colobus_polykomos/Colobus_polykomos.xlsx
+++ b/biology/Zoologie/Colobus_polykomos/Colobus_polykomos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Colobus polykomos est une espèce qui fait partie des mammifères Primates. C’est un singe de la famille des Cercopithecidae, appelé, entre autres, Colobe à longs poils ou Colobe à camail. Ce colobe est une espèce vulnérable.
 </t>
@@ -511,9 +523,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est désignée en français par plusieurs noms vernaculaires : Colobe à longs poils, Colobe blanc-et-noir d'Afrique occidentale, Colobe d'Afrique de l'Ouest ou Colobe à camail[1]. On trouve aussi des appellations communes à d'autres espèces comme Colobe noir, Colobe magistrat[1] ou plus simplement « magistrat ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est désignée en français par plusieurs noms vernaculaires : Colobe à longs poils, Colobe blanc-et-noir d'Afrique occidentale, Colobe d'Afrique de l'Ouest ou Colobe à camail. On trouve aussi des appellations communes à d'autres espèces comme Colobe noir, Colobe magistrat ou plus simplement « magistrat ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description et éléments d'écologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est un singe d’une taille de 100 à 150 cm (queue comprise et comptant pour un peu plus de la moitié de la longueur), pour un ‘poids’ de 6 à 12 kg. Le pelage est relativement caractéristique : le corps et les membres sont noirs avec des traces de blanc, la queue entièrement blanche, et il a un bonnet de cheveux argentés, ébouriffés, et se terminant en longues épaulettes blanches. Son alimentation est semble-t-il très sélective : il consomme majoritairement une vingtaine d’espèces d'arbres et de lianes (feuilles et fruits).
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition et Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Son aire de répartition est simple : il n’est présent que sur la côte ouest africaine de la Guinée Bissau à l’ouest de la Côte d’Ivoire. Elle est donc très petite. Ce singe habite dans les forêts pluvieuses et forêts galeries, si possible à proximité d’un cours d’eau. L'espèce est assez rare !
